--- a/analyseRC_df.xlsx
+++ b/analyseRC_df.xlsx
@@ -519,7 +519,7 @@
         <v>61398.9160000336</v>
       </c>
       <c r="F4" t="n">
-        <v>9349.906614530881</v>
+        <v>10105.66313977776</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         <v>92098.37400005039</v>
       </c>
       <c r="F5" t="n">
-        <v>127288.5337690568</v>
+        <v>131744.5991485662</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>122797.8320000672</v>
       </c>
       <c r="F6" t="n">
-        <v>285677.349770129</v>
+        <v>291323.4506903531</v>
       </c>
     </row>
     <row r="7">
@@ -591,7 +591,7 @@
         <v>153497.290000084</v>
       </c>
       <c r="F7" t="n">
-        <v>436342.0607120575</v>
+        <v>444487.4534715106</v>
       </c>
     </row>
     <row r="8">
@@ -615,7 +615,7 @@
         <v>184196.7480001008</v>
       </c>
       <c r="F8" t="n">
-        <v>584607.5574937309</v>
+        <v>596543.1838339053</v>
       </c>
     </row>
     <row r="9">
@@ -639,7 +639,7 @@
         <v>214896.2060001176</v>
       </c>
       <c r="F9" t="n">
-        <v>729589.2701593573</v>
+        <v>744605.9023646732</v>
       </c>
     </row>
     <row r="10">
@@ -663,7 +663,7 @@
         <v>245595.6640001344</v>
       </c>
       <c r="F10" t="n">
-        <v>863361.7761593423</v>
+        <v>881588.6704431179</v>
       </c>
     </row>
     <row r="11">
@@ -687,7 +687,7 @@
         <v>276295.1220001511</v>
       </c>
       <c r="F11" t="n">
-        <v>988638.0221059541</v>
+        <v>1009967.858438044</v>
       </c>
     </row>
     <row r="12">
@@ -735,7 +735,7 @@
         <v>26479.9999999994</v>
       </c>
       <c r="F13" t="n">
-        <v>14826.65606307519</v>
+        <v>13568.27480762583</v>
       </c>
     </row>
     <row r="14">
@@ -759,7 +759,7 @@
         <v>52959.99999999879</v>
       </c>
       <c r="F14" t="n">
-        <v>64237.36086105718</v>
+        <v>60224.0257937783</v>
       </c>
     </row>
     <row r="15">
@@ -783,7 +783,7 @@
         <v>79439.99999999818</v>
       </c>
       <c r="F15" t="n">
-        <v>105405.8741967572</v>
+        <v>103141.2046088116</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         <v>105919.9999999976</v>
       </c>
       <c r="F16" t="n">
-        <v>141554.0024463714</v>
+        <v>140905.4605896143</v>
       </c>
     </row>
     <row r="17">
@@ -831,7 +831,7 @@
         <v>132399.999999997</v>
       </c>
       <c r="F17" t="n">
-        <v>172148.1492893648</v>
+        <v>170951.4727257513</v>
       </c>
     </row>
     <row r="18">
@@ -855,7 +855,7 @@
         <v>158879.9999999964</v>
       </c>
       <c r="F18" t="n">
-        <v>197115.0464514727</v>
+        <v>195779.9721990683</v>
       </c>
     </row>
     <row r="19">
@@ -879,7 +879,7 @@
         <v>185359.9999999958</v>
       </c>
       <c r="F19" t="n">
-        <v>218899.5611661537</v>
+        <v>219407.5135204255</v>
       </c>
     </row>
     <row r="20">
@@ -903,7 +903,7 @@
         <v>211839.9999999952</v>
       </c>
       <c r="F20" t="n">
-        <v>240926.2476144524</v>
+        <v>242211.932361127</v>
       </c>
     </row>
     <row r="21">
@@ -927,7 +927,7 @@
         <v>238319.9999999946</v>
       </c>
       <c r="F21" t="n">
-        <v>261369.0923560532</v>
+        <v>262311.784838131</v>
       </c>
     </row>
     <row r="22">
@@ -1455,7 +1455,7 @@
         <v>57646.182</v>
       </c>
       <c r="F43" t="n">
-        <v>28467.47942784581</v>
+        <v>28578.66628413394</v>
       </c>
     </row>
     <row r="44">
@@ -1479,7 +1479,7 @@
         <v>115292.364</v>
       </c>
       <c r="F44" t="n">
-        <v>99435.63897621071</v>
+        <v>99153.80806321453</v>
       </c>
     </row>
     <row r="45">
@@ -1503,7 +1503,7 @@
         <v>172938.546</v>
       </c>
       <c r="F45" t="n">
-        <v>169863.1749270306</v>
+        <v>168933.0664041296</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1527,7 @@
         <v>230584.728</v>
       </c>
       <c r="F46" t="n">
-        <v>233754.7848185234</v>
+        <v>232284.3731039814</v>
       </c>
     </row>
     <row r="47">
@@ -1551,7 +1551,7 @@
         <v>288230.91</v>
       </c>
       <c r="F47" t="n">
-        <v>291969.1611736363</v>
+        <v>290364.3514974142</v>
       </c>
     </row>
     <row r="48">
@@ -1575,7 +1575,7 @@
         <v>345877.0919999999</v>
       </c>
       <c r="F48" t="n">
-        <v>344467.0562642764</v>
+        <v>342749.152422583</v>
       </c>
     </row>
     <row r="49">
@@ -1599,7 +1599,7 @@
         <v>403523.274</v>
       </c>
       <c r="F49" t="n">
-        <v>391876.7853391045</v>
+        <v>389735.8485348797</v>
       </c>
     </row>
     <row r="50">
@@ -1623,7 +1623,7 @@
         <v>461169.456</v>
       </c>
       <c r="F50" t="n">
-        <v>434560.1170309325</v>
+        <v>432154.1192701443</v>
       </c>
     </row>
     <row r="51">
@@ -1647,7 +1647,7 @@
         <v>518815.638</v>
       </c>
       <c r="F51" t="n">
-        <v>473394.9925077116</v>
+        <v>470631.7190954499</v>
       </c>
     </row>
     <row r="52">
@@ -1695,7 +1695,7 @@
         <v>313269.078</v>
       </c>
       <c r="F53" t="n">
-        <v>31656.87338689288</v>
+        <v>34620.94955431801</v>
       </c>
     </row>
     <row r="54">
@@ -1719,7 +1719,7 @@
         <v>626538.1560000001</v>
       </c>
       <c r="F54" t="n">
-        <v>114865.0065420737</v>
+        <v>134690.1954895044</v>
       </c>
     </row>
     <row r="55">
@@ -1743,7 +1743,7 @@
         <v>939807.2339999999</v>
       </c>
       <c r="F55" t="n">
-        <v>200641.3191275876</v>
+        <v>234302.9564667891</v>
       </c>
     </row>
     <row r="56">
@@ -1767,7 +1767,7 @@
         <v>1253076.312</v>
       </c>
       <c r="F56" t="n">
-        <v>273719.74635323</v>
+        <v>319565.848698434</v>
       </c>
     </row>
     <row r="57">
@@ -1791,7 +1791,7 @@
         <v>1566345.39</v>
       </c>
       <c r="F57" t="n">
-        <v>338623.9400242388</v>
+        <v>396100.3448752524</v>
       </c>
     </row>
     <row r="58">
@@ -1815,7 +1815,7 @@
         <v>1879614.468</v>
       </c>
       <c r="F58" t="n">
-        <v>396534.5793408902</v>
+        <v>462241.2633435281</v>
       </c>
     </row>
     <row r="59">
@@ -1839,7 +1839,7 @@
         <v>2192883.546</v>
       </c>
       <c r="F59" t="n">
-        <v>447126.2794338333</v>
+        <v>519958.7790941996</v>
       </c>
     </row>
     <row r="60">
@@ -1863,7 +1863,7 @@
         <v>2506152.624</v>
       </c>
       <c r="F60" t="n">
-        <v>491754.2226627941</v>
+        <v>570839.2983861894</v>
       </c>
     </row>
     <row r="61">
@@ -1887,7 +1887,7 @@
         <v>2819421.702000001</v>
       </c>
       <c r="F61" t="n">
-        <v>531429.6320123906</v>
+        <v>617271.110438143</v>
       </c>
     </row>
     <row r="62">
@@ -1959,7 +1959,7 @@
         <v>32827.6</v>
       </c>
       <c r="F64" t="n">
-        <v>2062.183202201041</v>
+        <v>2138.565807342776</v>
       </c>
     </row>
     <row r="65">
@@ -1983,7 +1983,7 @@
         <v>49241.39999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>11257.84744189105</v>
+        <v>11370.7435639316</v>
       </c>
     </row>
     <row r="66">
@@ -2007,7 +2007,7 @@
         <v>65655.2</v>
       </c>
       <c r="F66" t="n">
-        <v>23509.48286291044</v>
+        <v>23541.76004056824</v>
       </c>
     </row>
     <row r="67">
@@ -2031,7 +2031,7 @@
         <v>82069</v>
       </c>
       <c r="F67" t="n">
-        <v>37598.06447805617</v>
+        <v>37549.02484970899</v>
       </c>
     </row>
     <row r="68">
@@ -2055,7 +2055,7 @@
         <v>98482.79999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>53099.25830782819</v>
+        <v>53119.35748416685</v>
       </c>
     </row>
     <row r="69">
@@ -2079,7 +2079,7 @@
         <v>114896.6</v>
       </c>
       <c r="F69" t="n">
-        <v>68635.73006885852</v>
+        <v>68865.36846666313</v>
       </c>
     </row>
     <row r="70">
@@ -2103,7 +2103,7 @@
         <v>131310.4</v>
       </c>
       <c r="F70" t="n">
-        <v>84415.33321609652</v>
+        <v>84495.33829138298</v>
       </c>
     </row>
     <row r="71">
@@ -2127,7 +2127,7 @@
         <v>147724.2</v>
       </c>
       <c r="F71" t="n">
-        <v>100452.9094653607</v>
+        <v>100644.1891555921</v>
       </c>
     </row>
     <row r="72">
@@ -2175,7 +2175,7 @@
         <v>84498.48200199999</v>
       </c>
       <c r="F73" t="n">
-        <v>140330.410765802</v>
+        <v>140815.5151530473</v>
       </c>
     </row>
     <row r="74">
@@ -2199,7 +2199,7 @@
         <v>168996.964004</v>
       </c>
       <c r="F74" t="n">
-        <v>561474.8858350284</v>
+        <v>573820.6623800445</v>
       </c>
     </row>
     <row r="75">
@@ -2223,7 +2223,7 @@
         <v>253495.446006</v>
       </c>
       <c r="F75" t="n">
-        <v>948789.1947222691</v>
+        <v>969066.1330866341</v>
       </c>
     </row>
     <row r="76">
@@ -2247,7 +2247,7 @@
         <v>337993.928008</v>
       </c>
       <c r="F76" t="n">
-        <v>1267843.189232258</v>
+        <v>1299268.821291199</v>
       </c>
     </row>
     <row r="77">
@@ -2271,7 +2271,7 @@
         <v>422492.41001</v>
       </c>
       <c r="F77" t="n">
-        <v>1527753.275354698</v>
+        <v>1566823.654840165</v>
       </c>
     </row>
     <row r="78">
@@ -2295,7 +2295,7 @@
         <v>506990.892012</v>
       </c>
       <c r="F78" t="n">
-        <v>1739255.380328109</v>
+        <v>1788833.940871002</v>
       </c>
     </row>
     <row r="79">
@@ -2319,7 +2319,7 @@
         <v>591489.3740139999</v>
       </c>
       <c r="F79" t="n">
-        <v>1920897.454052433</v>
+        <v>1980034.902399502</v>
       </c>
     </row>
     <row r="80">
@@ -2343,7 +2343,7 @@
         <v>675987.8560159999</v>
       </c>
       <c r="F80" t="n">
-        <v>2077436.106855511</v>
+        <v>2141884.404496072</v>
       </c>
     </row>
     <row r="81">
@@ -2367,7 +2367,7 @@
         <v>760486.3380180002</v>
       </c>
       <c r="F81" t="n">
-        <v>2210770.62065118</v>
+        <v>2279532.12610808</v>
       </c>
     </row>
     <row r="82">
@@ -2415,7 +2415,7 @@
         <v>34953.3035025998</v>
       </c>
       <c r="F83" t="n">
-        <v>8218.575961591223</v>
+        <v>7739.120050480278</v>
       </c>
     </row>
     <row r="84">
@@ -2439,7 +2439,7 @@
         <v>69906.60700519959</v>
       </c>
       <c r="F84" t="n">
-        <v>78435.33025268141</v>
+        <v>75331.32778548842</v>
       </c>
     </row>
     <row r="85">
@@ -2463,7 +2463,7 @@
         <v>104859.9105077994</v>
       </c>
       <c r="F85" t="n">
-        <v>137239.0845024558</v>
+        <v>134189.2037464671</v>
       </c>
     </row>
     <row r="86">
@@ -2487,7 +2487,7 @@
         <v>139813.2140103992</v>
       </c>
       <c r="F86" t="n">
-        <v>206016.6118187557</v>
+        <v>204837.9871287126</v>
       </c>
     </row>
     <row r="87">
@@ -2511,7 +2511,7 @@
         <v>174766.517512999</v>
       </c>
       <c r="F87" t="n">
-        <v>266695.1948189783</v>
+        <v>263740.1813717776</v>
       </c>
     </row>
     <row r="88">
@@ -2535,7 +2535,7 @@
         <v>209719.8210155988</v>
       </c>
       <c r="F88" t="n">
-        <v>317722.3005388405</v>
+        <v>313817.3036328926</v>
       </c>
     </row>
     <row r="89">
@@ -2559,7 +2559,7 @@
         <v>244673.1245181986</v>
       </c>
       <c r="F89" t="n">
-        <v>363775.569332498</v>
+        <v>358502.959583152</v>
       </c>
     </row>
     <row r="90">
@@ -2583,7 +2583,7 @@
         <v>279626.4280207984</v>
       </c>
       <c r="F90" t="n">
-        <v>403717.3889370731</v>
+        <v>397273.4995249931</v>
       </c>
     </row>
     <row r="91">
@@ -2607,7 +2607,7 @@
         <v>314579.7315233982</v>
       </c>
       <c r="F91" t="n">
-        <v>438789.1928817672</v>
+        <v>431290.3298660588</v>
       </c>
     </row>
     <row r="92">
@@ -2895,7 +2895,7 @@
         <v>52399.9598600002</v>
       </c>
       <c r="F103" t="n">
-        <v>79247.66128423219</v>
+        <v>84981.52761576534</v>
       </c>
     </row>
     <row r="104">
@@ -2919,7 +2919,7 @@
         <v>104799.9197200004</v>
       </c>
       <c r="F104" t="n">
-        <v>198090.9787431784</v>
+        <v>207071.7256241434</v>
       </c>
     </row>
     <row r="105">
@@ -2943,7 +2943,7 @@
         <v>157199.8795800006</v>
       </c>
       <c r="F105" t="n">
-        <v>295394.2834677371</v>
+        <v>306031.0427674481</v>
       </c>
     </row>
     <row r="106">
@@ -2967,7 +2967,7 @@
         <v>209599.8394400008</v>
       </c>
       <c r="F106" t="n">
-        <v>374635.7004684279</v>
+        <v>385849.7162298238</v>
       </c>
     </row>
     <row r="107">
@@ -2991,7 +2991,7 @@
         <v>261999.799300001</v>
       </c>
       <c r="F107" t="n">
-        <v>439471.6771917228</v>
+        <v>451733.3239710296</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>314399.7591600012</v>
       </c>
       <c r="F108" t="n">
-        <v>493036.3041549575</v>
+        <v>506104.4826058967</v>
       </c>
     </row>
     <row r="109">
@@ -3039,7 +3039,7 @@
         <v>366799.7190200014</v>
       </c>
       <c r="F109" t="n">
-        <v>537793.7697316004</v>
+        <v>551406.015424223</v>
       </c>
     </row>
     <row r="110">
@@ -3063,7 +3063,7 @@
         <v>419199.6788800016</v>
       </c>
       <c r="F110" t="n">
-        <v>575964.0089845499</v>
+        <v>589479.5843029298</v>
       </c>
     </row>
     <row r="111">
@@ -3087,7 +3087,7 @@
         <v>471599.6387400018</v>
       </c>
       <c r="F111" t="n">
-        <v>608383.3022439134</v>
+        <v>622303.2462811209</v>
       </c>
     </row>
     <row r="112">
@@ -3183,7 +3183,7 @@
         <v>6375</v>
       </c>
       <c r="F115" t="n">
-        <v>922.1591484372225</v>
+        <v>899.5048846092382</v>
       </c>
     </row>
     <row r="116">
@@ -3207,7 +3207,7 @@
         <v>8500</v>
       </c>
       <c r="F116" t="n">
-        <v>2544.323550220647</v>
+        <v>2479.605755001405</v>
       </c>
     </row>
     <row r="117">
@@ -3231,7 +3231,7 @@
         <v>10625</v>
       </c>
       <c r="F117" t="n">
-        <v>4216.977487880958</v>
+        <v>4108.011092957257</v>
       </c>
     </row>
     <row r="118">
@@ -3255,7 +3255,7 @@
         <v>12750</v>
       </c>
       <c r="F118" t="n">
-        <v>6277.862722438371</v>
+        <v>6058.172388820716</v>
       </c>
     </row>
     <row r="119">
@@ -3279,7 +3279,7 @@
         <v>14875</v>
       </c>
       <c r="F119" t="n">
-        <v>8617.878006009298</v>
+        <v>8321.077533350475</v>
       </c>
     </row>
     <row r="120">
@@ -3303,7 +3303,7 @@
         <v>17000</v>
       </c>
       <c r="F120" t="n">
-        <v>10966.08347379618</v>
+        <v>10593.71796108524</v>
       </c>
     </row>
     <row r="121">
@@ -3327,7 +3327,7 @@
         <v>19125</v>
       </c>
       <c r="F121" t="n">
-        <v>13297.0225416683</v>
+        <v>12850.156846009</v>
       </c>
     </row>
     <row r="122">
@@ -3375,7 +3375,7 @@
         <v>330832.6</v>
       </c>
       <c r="F123" t="n">
-        <v>39996.16273303285</v>
+        <v>44587.16188386771</v>
       </c>
     </row>
     <row r="124">
@@ -3399,7 +3399,7 @@
         <v>661665.2000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>129694.9262637489</v>
+        <v>149581.6732378375</v>
       </c>
     </row>
     <row r="125">
@@ -3423,7 +3423,7 @@
         <v>992497.7999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>213265.1983206036</v>
+        <v>246934.5975668693</v>
       </c>
     </row>
     <row r="126">
@@ -3447,7 +3447,7 @@
         <v>1323330.4</v>
       </c>
       <c r="F126" t="n">
-        <v>283325.764884587</v>
+        <v>332587.6484833481</v>
       </c>
     </row>
     <row r="127">
@@ -3471,7 +3471,7 @@
         <v>1654163</v>
       </c>
       <c r="F127" t="n">
-        <v>344293.9941885851</v>
+        <v>406463.4688868849</v>
       </c>
     </row>
     <row r="128">
@@ -3495,7 +3495,7 @@
         <v>1984995.6</v>
       </c>
       <c r="F128" t="n">
-        <v>398367.7334479797</v>
+        <v>471082.540776048</v>
       </c>
     </row>
     <row r="129">
@@ -3519,7 +3519,7 @@
         <v>2315828.2</v>
       </c>
       <c r="F129" t="n">
-        <v>445150.8946026677</v>
+        <v>527163.0013529642</v>
       </c>
     </row>
     <row r="130">
@@ -3543,7 +3543,7 @@
         <v>2646660.8</v>
       </c>
       <c r="F130" t="n">
-        <v>486968.6808618431</v>
+        <v>576292.5198190317</v>
       </c>
     </row>
     <row r="131">
@@ -3567,7 +3567,7 @@
         <v>2977493.4</v>
       </c>
       <c r="F131" t="n">
-        <v>524545.5289007284</v>
+        <v>619895.7154822211</v>
       </c>
     </row>
     <row r="132">
@@ -3615,7 +3615,7 @@
         <v>21829.2</v>
       </c>
       <c r="F133" t="n">
-        <v>535.6520715447923</v>
+        <v>520.4979779982244</v>
       </c>
     </row>
     <row r="134">
@@ -3639,7 +3639,7 @@
         <v>43658.4</v>
       </c>
       <c r="F134" t="n">
-        <v>10591.59119197939</v>
+        <v>10606.78200088063</v>
       </c>
     </row>
     <row r="135">
@@ -3663,7 +3663,7 @@
         <v>65487.59999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>26013.83065593932</v>
+        <v>25691.55865322972</v>
       </c>
     </row>
     <row r="136">
@@ -3687,7 +3687,7 @@
         <v>87316.8</v>
       </c>
       <c r="F136" t="n">
-        <v>44221.48102260905</v>
+        <v>44014.41636152194</v>
       </c>
     </row>
     <row r="137">
@@ -3711,7 +3711,7 @@
         <v>109146</v>
       </c>
       <c r="F137" t="n">
-        <v>63100.16396976406</v>
+        <v>62572.68091317185</v>
       </c>
     </row>
     <row r="138">
@@ -3735,7 +3735,7 @@
         <v>130975.2</v>
       </c>
       <c r="F138" t="n">
-        <v>82293.28993432781</v>
+        <v>81751.44444225708</v>
       </c>
     </row>
     <row r="139">
@@ -3759,7 +3759,7 @@
         <v>152804.4</v>
       </c>
       <c r="F139" t="n">
-        <v>101964.1986181772</v>
+        <v>101335.3062043179</v>
       </c>
     </row>
     <row r="140">
@@ -3783,7 +3783,7 @@
         <v>174633.6</v>
       </c>
       <c r="F140" t="n">
-        <v>121051.1125863486</v>
+        <v>120573.3721424613</v>
       </c>
     </row>
     <row r="141">
@@ -3807,7 +3807,7 @@
         <v>196462.8</v>
       </c>
       <c r="F141" t="n">
-        <v>139404.1514080832</v>
+        <v>139136.6031172179</v>
       </c>
     </row>
     <row r="142">
@@ -3855,7 +3855,7 @@
         <v>64908.1480222</v>
       </c>
       <c r="F143" t="n">
-        <v>101379.1395243804</v>
+        <v>96262.61298634925</v>
       </c>
     </row>
     <row r="144">
@@ -3879,7 +3879,7 @@
         <v>129816.2960444</v>
       </c>
       <c r="F144" t="n">
-        <v>417352.0002850456</v>
+        <v>415341.0994695302</v>
       </c>
     </row>
     <row r="145">
@@ -3903,7 +3903,7 @@
         <v>194724.4440666</v>
       </c>
       <c r="F145" t="n">
-        <v>694150.425427909</v>
+        <v>708505.5654050233</v>
       </c>
     </row>
     <row r="146">
@@ -3927,7 +3927,7 @@
         <v>259632.5920888</v>
       </c>
       <c r="F146" t="n">
-        <v>931586.4873228419</v>
+        <v>959159.8047943958</v>
       </c>
     </row>
     <row r="147">
@@ -3951,7 +3951,7 @@
         <v>324540.740111</v>
       </c>
       <c r="F147" t="n">
-        <v>1127588.65958854</v>
+        <v>1164623.24685351</v>
       </c>
     </row>
     <row r="148">
@@ -3975,7 +3975,7 @@
         <v>389448.8881331999</v>
       </c>
       <c r="F148" t="n">
-        <v>1287816.422068647</v>
+        <v>1337532.838319361</v>
       </c>
     </row>
     <row r="149">
@@ -3999,7 +3999,7 @@
         <v>454357.0361554</v>
       </c>
       <c r="F149" t="n">
-        <v>1420239.693401365</v>
+        <v>1484390.51574899</v>
       </c>
     </row>
     <row r="150">
@@ -4023,7 +4023,7 @@
         <v>519265.1841776</v>
       </c>
       <c r="F150" t="n">
-        <v>1530837.958058155</v>
+        <v>1612696.264888573</v>
       </c>
     </row>
     <row r="151">
@@ -4047,7 +4047,7 @@
         <v>584173.3321998001</v>
       </c>
       <c r="F151" t="n">
-        <v>1624236.807107133</v>
+        <v>1722952.083070286</v>
       </c>
     </row>
     <row r="152">
@@ -4095,7 +4095,7 @@
         <v>87639.59533019982</v>
       </c>
       <c r="F153" t="n">
-        <v>106970.2537053765</v>
+        <v>101314.8331732719</v>
       </c>
     </row>
     <row r="154">
@@ -4119,7 +4119,7 @@
         <v>175279.1906603996</v>
       </c>
       <c r="F154" t="n">
-        <v>265264.0466106421</v>
+        <v>260011.0903092448</v>
       </c>
     </row>
     <row r="155">
@@ -4143,7 +4143,7 @@
         <v>262918.7859905994</v>
       </c>
       <c r="F155" t="n">
-        <v>384599.0235885252</v>
+        <v>381241.9367681512</v>
       </c>
     </row>
     <row r="156">
@@ -4167,7 +4167,7 @@
         <v>350558.3813207993</v>
       </c>
       <c r="F156" t="n">
-        <v>473693.6253048893</v>
+        <v>474182.8495331422</v>
       </c>
     </row>
     <row r="157">
@@ -4191,7 +4191,7 @@
         <v>438197.976650999</v>
       </c>
       <c r="F157" t="n">
-        <v>542420.6341386534</v>
+        <v>545986.0260957096</v>
       </c>
     </row>
     <row r="158">
@@ -4215,7 +4215,7 @@
         <v>525837.5719811987</v>
       </c>
       <c r="F158" t="n">
-        <v>598593.0115052426</v>
+        <v>602121.2560361088</v>
       </c>
     </row>
     <row r="159">
@@ -4239,7 +4239,7 @@
         <v>613477.1673113987</v>
       </c>
       <c r="F159" t="n">
-        <v>644082.3467138658</v>
+        <v>647354.6836661688</v>
       </c>
     </row>
     <row r="160">
@@ -4263,7 +4263,7 @@
         <v>701116.7626415986</v>
       </c>
       <c r="F160" t="n">
-        <v>681254.2256092522</v>
+        <v>685730.35495316</v>
       </c>
     </row>
     <row r="161">
@@ -4287,7 +4287,7 @@
         <v>788756.3579717984</v>
       </c>
       <c r="F161" t="n">
-        <v>712138.1119793653</v>
+        <v>717607.7074539758</v>
       </c>
     </row>
     <row r="162">
@@ -4335,7 +4335,7 @@
         <v>25009.224</v>
       </c>
       <c r="F163" t="n">
-        <v>14576.59913801037</v>
+        <v>12960.35255315226</v>
       </c>
     </row>
     <row r="164">
@@ -4359,7 +4359,7 @@
         <v>50018.448</v>
       </c>
       <c r="F164" t="n">
-        <v>75987.24627195043</v>
+        <v>70867.30265577037</v>
       </c>
     </row>
     <row r="165">
@@ -4383,7 +4383,7 @@
         <v>75027.67200000001</v>
       </c>
       <c r="F165" t="n">
-        <v>157231.3176465953</v>
+        <v>149950.2616852272</v>
       </c>
     </row>
     <row r="166">
@@ -4407,7 +4407,7 @@
         <v>100036.896</v>
       </c>
       <c r="F166" t="n">
-        <v>241280.1220667735</v>
+        <v>234978.4919618971</v>
       </c>
     </row>
     <row r="167">
@@ -4431,7 +4431,7 @@
         <v>125046.12</v>
       </c>
       <c r="F167" t="n">
-        <v>325135.8819433062</v>
+        <v>320173.7718526365</v>
       </c>
     </row>
     <row r="168">
@@ -4455,7 +4455,7 @@
         <v>150055.344</v>
       </c>
       <c r="F168" t="n">
-        <v>404906.7051665577</v>
+        <v>401908.3838226532</v>
       </c>
     </row>
     <row r="169">
@@ -4479,7 +4479,7 @@
         <v>175064.568</v>
       </c>
       <c r="F169" t="n">
-        <v>480393.6908614872</v>
+        <v>480101.3293867035</v>
       </c>
     </row>
     <row r="170">
@@ -4503,7 +4503,7 @@
         <v>200073.792</v>
       </c>
       <c r="F170" t="n">
-        <v>551624.3973906809</v>
+        <v>554029.4837403839</v>
       </c>
     </row>
     <row r="171">
@@ -4527,7 +4527,7 @@
         <v>225083.016</v>
       </c>
       <c r="F171" t="n">
-        <v>618250.5758446692</v>
+        <v>624094.8509311627</v>
       </c>
     </row>
     <row r="172">
@@ -4575,7 +4575,7 @@
         <v>65732.12508315781</v>
       </c>
       <c r="F173" t="n">
-        <v>85754.38012810309</v>
+        <v>93149.20169396907</v>
       </c>
     </row>
     <row r="174">
@@ -4599,7 +4599,7 @@
         <v>131464.2501663156</v>
       </c>
       <c r="F174" t="n">
-        <v>230003.5812411134</v>
+        <v>242618.257618423</v>
       </c>
     </row>
     <row r="175">
@@ -4623,7 +4623,7 @@
         <v>197196.3752494734</v>
       </c>
       <c r="F175" t="n">
-        <v>353326.9268285274</v>
+        <v>368602.4665311126</v>
       </c>
     </row>
     <row r="176">
@@ -4647,7 +4647,7 @@
         <v>262928.5003326312</v>
       </c>
       <c r="F176" t="n">
-        <v>456648.4620074909</v>
+        <v>472988.9501439421</v>
       </c>
     </row>
     <row r="177">
@@ -4671,7 +4671,7 @@
         <v>328660.625415789</v>
       </c>
       <c r="F177" t="n">
-        <v>543548.3064620508</v>
+        <v>559847.9423868263</v>
       </c>
     </row>
     <row r="178">
@@ -4695,7 +4695,7 @@
         <v>394392.7504989468</v>
       </c>
       <c r="F178" t="n">
-        <v>617187.0603238415</v>
+        <v>633581.454738825</v>
       </c>
     </row>
     <row r="179">
@@ -4719,7 +4719,7 @@
         <v>460124.8755821046</v>
       </c>
       <c r="F179" t="n">
-        <v>680753.3593173695</v>
+        <v>697307.6129650313</v>
       </c>
     </row>
     <row r="180">
@@ -4743,7 +4743,7 @@
         <v>525857.0006652625</v>
       </c>
       <c r="F180" t="n">
-        <v>735543.6972979221</v>
+        <v>752100.7776290084</v>
       </c>
     </row>
     <row r="181">
@@ -4767,7 +4767,7 @@
         <v>591589.1257484201</v>
       </c>
       <c r="F181" t="n">
-        <v>783286.1495473547</v>
+        <v>799546.3841404328</v>
       </c>
     </row>
     <row r="182">
@@ -4815,7 +4815,7 @@
         <v>52288.29999999801</v>
       </c>
       <c r="F183" t="n">
-        <v>27459.22626365007</v>
+        <v>27034.55961865546</v>
       </c>
     </row>
     <row r="184">
@@ -4839,7 +4839,7 @@
         <v>104576.599999996</v>
       </c>
       <c r="F184" t="n">
-        <v>90218.68385068895</v>
+        <v>88611.6338173751</v>
       </c>
     </row>
     <row r="185">
@@ -4863,7 +4863,7 @@
         <v>156864.899999994</v>
       </c>
       <c r="F185" t="n">
-        <v>150127.0172420842</v>
+        <v>147634.7709000691</v>
       </c>
     </row>
     <row r="186">
@@ -4887,7 +4887,7 @@
         <v>209153.199999992</v>
       </c>
       <c r="F186" t="n">
-        <v>204281.838487626</v>
+        <v>201823.0122720277</v>
       </c>
     </row>
     <row r="187">
@@ -4911,7 +4911,7 @@
         <v>261441.49999999</v>
       </c>
       <c r="F187" t="n">
-        <v>253674.477658033</v>
+        <v>250487.3833808773</v>
       </c>
     </row>
     <row r="188">
@@ -4935,7 +4935,7 @@
         <v>313729.799999988</v>
       </c>
       <c r="F188" t="n">
-        <v>297902.4236705774</v>
+        <v>294202.7351436985</v>
       </c>
     </row>
     <row r="189">
@@ -4959,7 +4959,7 @@
         <v>366018.0999999859</v>
       </c>
       <c r="F189" t="n">
-        <v>338125.9239386329</v>
+        <v>334266.531291351</v>
       </c>
     </row>
     <row r="190">
@@ -4983,7 +4983,7 @@
         <v>418306.3999999841</v>
       </c>
       <c r="F190" t="n">
-        <v>374247.6904397252</v>
+        <v>370535.4984290237</v>
       </c>
     </row>
     <row r="191">
@@ -5007,7 +5007,7 @@
         <v>470594.699999982</v>
       </c>
       <c r="F191" t="n">
-        <v>406730.4357318173</v>
+        <v>403256.9070899478</v>
       </c>
     </row>
     <row r="192">
@@ -5055,7 +5055,7 @@
         <v>266205.399999978</v>
       </c>
       <c r="F193" t="n">
-        <v>15088.61458373502</v>
+        <v>16976.44218567253</v>
       </c>
     </row>
     <row r="194">
@@ -5079,7 +5079,7 @@
         <v>532410.799999956</v>
       </c>
       <c r="F194" t="n">
-        <v>86450.24241755511</v>
+        <v>98775.61511680624</v>
       </c>
     </row>
     <row r="195">
@@ -5103,7 +5103,7 @@
         <v>798616.1999999338</v>
       </c>
       <c r="F195" t="n">
-        <v>158483.9615202044</v>
+        <v>185773.2656574085</v>
       </c>
     </row>
     <row r="196">
@@ -5127,7 +5127,7 @@
         <v>1064821.599999912</v>
       </c>
       <c r="F196" t="n">
-        <v>225665.4177578801</v>
+        <v>261901.8185475472</v>
       </c>
     </row>
     <row r="197">
@@ -5151,7 +5151,7 @@
         <v>1331026.99999989</v>
       </c>
       <c r="F197" t="n">
-        <v>284991.0747526834</v>
+        <v>331688.198993951</v>
       </c>
     </row>
     <row r="198">
@@ -5175,7 +5175,7 @@
         <v>1597232.399999868</v>
       </c>
       <c r="F198" t="n">
-        <v>339935.3153837913</v>
+        <v>394072.898115203</v>
       </c>
     </row>
     <row r="199">
@@ -5199,7 +5199,7 @@
         <v>1863437.799999846</v>
       </c>
       <c r="F199" t="n">
-        <v>388531.1576936117</v>
+        <v>449314.0938903285</v>
       </c>
     </row>
     <row r="200">
@@ -5223,7 +5223,7 @@
         <v>2129643.199999824</v>
       </c>
       <c r="F200" t="n">
-        <v>431894.5503627373</v>
+        <v>498812.8339206895</v>
       </c>
     </row>
     <row r="201">
@@ -5247,7 +5247,7 @@
         <v>2395848.599999802</v>
       </c>
       <c r="F201" t="n">
-        <v>471564.3542812233</v>
+        <v>545286.8747045462</v>
       </c>
     </row>
     <row r="202">
@@ -5295,7 +5295,7 @@
         <v>87030.800000014</v>
       </c>
       <c r="F203" t="n">
-        <v>13614.40028373899</v>
+        <v>13194.85177069857</v>
       </c>
     </row>
     <row r="204">
@@ -5319,7 +5319,7 @@
         <v>174061.600000028</v>
       </c>
       <c r="F204" t="n">
-        <v>77710.40513294336</v>
+        <v>77800.79346152839</v>
       </c>
     </row>
     <row r="205">
@@ -5343,7 +5343,7 @@
         <v>261092.400000042</v>
       </c>
       <c r="F205" t="n">
-        <v>159540.9441891161</v>
+        <v>162632.3700006855</v>
       </c>
     </row>
     <row r="206">
@@ -5367,7 +5367,7 @@
         <v>348123.200000056</v>
       </c>
       <c r="F206" t="n">
-        <v>242058.338396583</v>
+        <v>248924.4526125579</v>
       </c>
     </row>
     <row r="207">
@@ -5391,7 +5391,7 @@
         <v>435154.0000000699</v>
       </c>
       <c r="F207" t="n">
-        <v>323537.3697740326</v>
+        <v>334017.7673928849</v>
       </c>
     </row>
     <row r="208">
@@ -5415,7 +5415,7 @@
         <v>522184.800000084</v>
       </c>
       <c r="F208" t="n">
-        <v>400618.4590711907</v>
+        <v>414822.88408156</v>
       </c>
     </row>
     <row r="209">
@@ -5439,7 +5439,7 @@
         <v>609215.600000098</v>
       </c>
       <c r="F209" t="n">
-        <v>472509.7143016317</v>
+        <v>490417.4163615415</v>
       </c>
     </row>
     <row r="210">
@@ -5463,7 +5463,7 @@
         <v>696246.400000112</v>
       </c>
       <c r="F210" t="n">
-        <v>539354.8427590691</v>
+        <v>560862.3870329701</v>
       </c>
     </row>
     <row r="211">
@@ -5487,7 +5487,7 @@
         <v>783277.200000126</v>
       </c>
       <c r="F211" t="n">
-        <v>601454.1233685582</v>
+        <v>626410.4618427065</v>
       </c>
     </row>
   </sheetData>
